--- a/Old Order Summary Acc/Tosrifa Ind. Ltd/Tosrifa Ind.xlsx
+++ b/Old Order Summary Acc/Tosrifa Ind. Ltd/Tosrifa Ind.xlsx
@@ -1565,8 +1565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C434" workbookViewId="0">
-      <selection activeCell="V458" sqref="V458"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Old Order Summary Acc/Tosrifa Ind. Ltd/Tosrifa Ind.xlsx
+++ b/Old Order Summary Acc/Tosrifa Ind. Ltd/Tosrifa Ind.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="343">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -1038,6 +1038,15 @@
   </si>
   <si>
     <t>21-01892</t>
+  </si>
+  <si>
+    <t>20.09.21</t>
+  </si>
+  <si>
+    <t>ff L s/j</t>
+  </si>
+  <si>
+    <t>16.09.21</t>
   </si>
 </sst>
 </file>
@@ -1121,12 +1130,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1170,7 +1185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,6 +1275,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1563,11 +1599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X466"/>
+  <dimension ref="A1:X455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B323" sqref="B323"/>
+      <pane ySplit="6" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T432" sqref="T432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16363,7 +16399,9 @@
       </c>
       <c r="U381" s="11"/>
       <c r="V381" s="16"/>
-      <c r="W381" s="4"/>
+      <c r="W381" s="4">
+        <v>25396</v>
+      </c>
     </row>
     <row r="382" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
@@ -16396,7 +16434,9 @@
       </c>
       <c r="U382" s="11"/>
       <c r="V382" s="16"/>
-      <c r="W382" s="4"/>
+      <c r="W382" s="4">
+        <v>25401</v>
+      </c>
     </row>
     <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
@@ -16544,203 +16584,203 @@
       <c r="W387" s="4"/>
     </row>
     <row r="388" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A388" s="4" t="s">
+      <c r="A388" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B388" s="18" t="s">
+      <c r="B388" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="C388" s="8" t="s">
+      <c r="C388" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="D388" s="14" t="s">
+      <c r="D388" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="E388" s="8" t="s">
+      <c r="E388" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="F388" s="8"/>
-      <c r="G388" s="8"/>
-      <c r="H388" s="8"/>
-      <c r="I388" s="8"/>
-      <c r="J388" s="8"/>
-      <c r="K388" s="8"/>
-      <c r="L388" s="8"/>
-      <c r="M388" s="9">
+      <c r="F388" s="46"/>
+      <c r="G388" s="46"/>
+      <c r="H388" s="46"/>
+      <c r="I388" s="46"/>
+      <c r="J388" s="46"/>
+      <c r="K388" s="46"/>
+      <c r="L388" s="46"/>
+      <c r="M388" s="48">
         <v>19.8</v>
       </c>
-      <c r="N388" s="4" t="s">
+      <c r="N388" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="O388" s="4" t="s">
+      <c r="O388" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="P388" s="9">
+      <c r="P388" s="48">
         <v>19.8</v>
       </c>
-      <c r="Q388" s="8" t="s">
+      <c r="Q388" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="R388" s="8">
+      <c r="R388" s="46">
         <v>1653</v>
       </c>
-      <c r="S388" s="8" t="s">
+      <c r="S388" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="T388" s="9">
+      <c r="T388" s="48">
         <v>270</v>
       </c>
-      <c r="U388" s="11"/>
-      <c r="V388" s="16"/>
-      <c r="W388" s="4"/>
+      <c r="U388" s="49"/>
+      <c r="V388" s="50"/>
+      <c r="W388" s="44"/>
     </row>
     <row r="389" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A389" s="4" t="s">
+      <c r="A389" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B389" s="18" t="s">
+      <c r="B389" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="C389" s="8" t="s">
+      <c r="C389" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D389" s="14" t="s">
+      <c r="D389" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="E389" s="8" t="s">
+      <c r="E389" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="F389" s="8"/>
-      <c r="G389" s="8"/>
-      <c r="H389" s="8"/>
-      <c r="I389" s="8"/>
-      <c r="J389" s="8"/>
-      <c r="K389" s="8"/>
-      <c r="L389" s="8"/>
-      <c r="M389" s="9">
+      <c r="F389" s="46"/>
+      <c r="G389" s="46"/>
+      <c r="H389" s="46"/>
+      <c r="I389" s="46"/>
+      <c r="J389" s="46"/>
+      <c r="K389" s="46"/>
+      <c r="L389" s="46"/>
+      <c r="M389" s="48">
         <v>1929.7</v>
       </c>
-      <c r="N389" s="4" t="s">
+      <c r="N389" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="O389" s="4" t="s">
+      <c r="O389" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="P389" s="9">
+      <c r="P389" s="48">
         <v>1929.7</v>
       </c>
-      <c r="Q389" s="8" t="s">
+      <c r="Q389" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="R389" s="8">
+      <c r="R389" s="46">
         <v>1665</v>
       </c>
-      <c r="S389" s="8" t="s">
+      <c r="S389" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="T389" s="9">
+      <c r="T389" s="48">
         <v>1427</v>
       </c>
-      <c r="U389" s="11"/>
-      <c r="V389" s="16"/>
-      <c r="W389" s="4"/>
+      <c r="U389" s="49"/>
+      <c r="V389" s="50"/>
+      <c r="W389" s="44"/>
     </row>
     <row r="390" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A390" s="4"/>
-      <c r="B390" s="18"/>
-      <c r="C390" s="8"/>
-      <c r="D390" s="14"/>
-      <c r="E390" s="8"/>
-      <c r="F390" s="8"/>
-      <c r="G390" s="8"/>
-      <c r="H390" s="8"/>
-      <c r="I390" s="8"/>
-      <c r="J390" s="8"/>
-      <c r="K390" s="8"/>
-      <c r="L390" s="8"/>
-      <c r="M390" s="9"/>
-      <c r="N390" s="4"/>
-      <c r="O390" s="7"/>
-      <c r="P390" s="11"/>
-      <c r="Q390" s="8" t="s">
+      <c r="A390" s="44"/>
+      <c r="B390" s="45"/>
+      <c r="C390" s="46"/>
+      <c r="D390" s="47"/>
+      <c r="E390" s="46"/>
+      <c r="F390" s="46"/>
+      <c r="G390" s="46"/>
+      <c r="H390" s="46"/>
+      <c r="I390" s="46"/>
+      <c r="J390" s="46"/>
+      <c r="K390" s="46"/>
+      <c r="L390" s="46"/>
+      <c r="M390" s="48"/>
+      <c r="N390" s="44"/>
+      <c r="O390" s="51"/>
+      <c r="P390" s="49"/>
+      <c r="Q390" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="R390" s="8">
+      <c r="R390" s="46">
         <v>1681</v>
       </c>
-      <c r="S390" s="8" t="s">
+      <c r="S390" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="T390" s="9">
+      <c r="T390" s="48">
         <v>242</v>
       </c>
-      <c r="U390" s="11">
+      <c r="U390" s="49">
         <v>9</v>
       </c>
-      <c r="V390" s="16"/>
-      <c r="W390" s="4"/>
+      <c r="V390" s="50"/>
+      <c r="W390" s="44"/>
     </row>
     <row r="391" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A391" s="4"/>
-      <c r="B391" s="18"/>
-      <c r="C391" s="8"/>
-      <c r="D391" s="14"/>
-      <c r="E391" s="8"/>
-      <c r="F391" s="8"/>
-      <c r="G391" s="8"/>
-      <c r="H391" s="8"/>
-      <c r="I391" s="8"/>
-      <c r="J391" s="8"/>
-      <c r="K391" s="8"/>
-      <c r="L391" s="8"/>
-      <c r="M391" s="9"/>
-      <c r="N391" s="4"/>
-      <c r="O391" s="7"/>
-      <c r="P391" s="11"/>
-      <c r="Q391" s="8"/>
-      <c r="R391" s="8"/>
-      <c r="S391" s="8"/>
-      <c r="T391" s="9"/>
-      <c r="U391" s="11"/>
-      <c r="V391" s="16"/>
-      <c r="W391" s="4"/>
+      <c r="A391" s="44"/>
+      <c r="B391" s="45"/>
+      <c r="C391" s="46"/>
+      <c r="D391" s="47"/>
+      <c r="E391" s="46"/>
+      <c r="F391" s="46"/>
+      <c r="G391" s="46"/>
+      <c r="H391" s="46"/>
+      <c r="I391" s="46"/>
+      <c r="J391" s="46"/>
+      <c r="K391" s="46"/>
+      <c r="L391" s="46"/>
+      <c r="M391" s="48"/>
+      <c r="N391" s="44"/>
+      <c r="O391" s="51"/>
+      <c r="P391" s="49"/>
+      <c r="Q391" s="46"/>
+      <c r="R391" s="46"/>
+      <c r="S391" s="46"/>
+      <c r="T391" s="48"/>
+      <c r="U391" s="49"/>
+      <c r="V391" s="50"/>
+      <c r="W391" s="44"/>
     </row>
     <row r="392" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A392" s="4"/>
-      <c r="B392" s="18"/>
-      <c r="C392" s="8"/>
-      <c r="D392" s="14"/>
-      <c r="E392" s="8"/>
-      <c r="F392" s="8"/>
-      <c r="G392" s="8"/>
-      <c r="H392" s="8"/>
-      <c r="I392" s="8"/>
-      <c r="J392" s="8"/>
-      <c r="K392" s="8"/>
-      <c r="L392" s="8"/>
-      <c r="M392" s="9"/>
-      <c r="N392" s="4"/>
-      <c r="O392" s="7"/>
-      <c r="P392" s="11">
+      <c r="A392" s="44"/>
+      <c r="B392" s="45"/>
+      <c r="C392" s="46"/>
+      <c r="D392" s="47"/>
+      <c r="E392" s="46"/>
+      <c r="F392" s="46"/>
+      <c r="G392" s="46"/>
+      <c r="H392" s="46"/>
+      <c r="I392" s="46"/>
+      <c r="J392" s="46"/>
+      <c r="K392" s="46"/>
+      <c r="L392" s="46"/>
+      <c r="M392" s="48"/>
+      <c r="N392" s="44"/>
+      <c r="O392" s="51"/>
+      <c r="P392" s="49">
         <f>SUM(P388:P391)</f>
         <v>1949.5</v>
       </c>
-      <c r="Q392" s="12"/>
-      <c r="R392" s="12"/>
-      <c r="S392" s="12"/>
-      <c r="T392" s="11">
+      <c r="Q392" s="52"/>
+      <c r="R392" s="52"/>
+      <c r="S392" s="52"/>
+      <c r="T392" s="49">
         <f>SUM(T388:T391)</f>
         <v>1939</v>
       </c>
-      <c r="U392" s="11">
+      <c r="U392" s="49">
         <f>SUM(U388:U391)</f>
         <v>9</v>
       </c>
-      <c r="V392" s="16">
+      <c r="V392" s="50">
         <f>T392-P392+U392</f>
         <v>-1.5</v>
       </c>
-      <c r="W392" s="4"/>
+      <c r="W392" s="44"/>
     </row>
     <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
@@ -16791,7 +16831,9 @@
       </c>
       <c r="U393" s="9"/>
       <c r="V393" s="16"/>
-      <c r="W393" s="4"/>
+      <c r="W393" s="4">
+        <v>25707</v>
+      </c>
     </row>
     <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
@@ -16828,10 +16870,18 @@
       <c r="P394" s="9">
         <v>3300</v>
       </c>
-      <c r="Q394" s="8"/>
-      <c r="R394" s="8"/>
-      <c r="S394" s="8"/>
-      <c r="T394" s="9"/>
+      <c r="Q394" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="R394" s="8">
+        <v>1739</v>
+      </c>
+      <c r="S394" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T394" s="9">
+        <v>364</v>
+      </c>
       <c r="U394" s="9"/>
       <c r="V394" s="16"/>
       <c r="W394" s="4"/>
@@ -16853,10 +16903,18 @@
       <c r="N395" s="4"/>
       <c r="O395" s="7"/>
       <c r="P395" s="11"/>
-      <c r="Q395" s="8"/>
-      <c r="R395" s="8"/>
-      <c r="S395" s="8"/>
-      <c r="T395" s="9"/>
+      <c r="Q395" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="R395" s="8">
+        <v>1721</v>
+      </c>
+      <c r="S395" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T395" s="9">
+        <v>865</v>
+      </c>
       <c r="U395" s="9"/>
       <c r="V395" s="16"/>
       <c r="W395" s="4"/>
@@ -16878,10 +16936,18 @@
       <c r="N396" s="4"/>
       <c r="O396" s="7"/>
       <c r="P396" s="11"/>
-      <c r="Q396" s="8"/>
-      <c r="R396" s="8"/>
-      <c r="S396" s="8"/>
-      <c r="T396" s="9"/>
+      <c r="Q396" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="R396" s="8">
+        <v>1694</v>
+      </c>
+      <c r="S396" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T396" s="9">
+        <v>1241</v>
+      </c>
       <c r="U396" s="9"/>
       <c r="V396" s="16"/>
       <c r="W396" s="4"/>
@@ -16911,7 +16977,7 @@
       <c r="S397" s="12"/>
       <c r="T397" s="11">
         <f>SUM(T393:T396)</f>
-        <v>855</v>
+        <v>3325</v>
       </c>
       <c r="U397" s="11">
         <f>SUM(U393:U396)</f>
@@ -16919,7 +16985,7 @@
       </c>
       <c r="V397" s="16">
         <f>T397-P397+U397</f>
-        <v>-2803.34</v>
+        <v>-333.34000000000015</v>
       </c>
       <c r="W397" s="4"/>
     </row>
@@ -16966,14 +17032,26 @@
       </c>
       <c r="U398" s="11"/>
       <c r="V398" s="16"/>
-      <c r="W398" s="4"/>
+      <c r="W398" s="4">
+        <v>26002</v>
+      </c>
     </row>
     <row r="399" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A399" s="4"/>
-      <c r="B399" s="18"/>
-      <c r="C399" s="8"/>
-      <c r="D399" s="14"/>
-      <c r="E399" s="8"/>
+      <c r="A399" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B399" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>326</v>
+      </c>
       <c r="F399" s="8"/>
       <c r="G399" s="8"/>
       <c r="H399" s="8"/>
@@ -16981,17 +17059,35 @@
       <c r="J399" s="8"/>
       <c r="K399" s="8"/>
       <c r="L399" s="8"/>
-      <c r="M399" s="9"/>
-      <c r="N399" s="4"/>
-      <c r="O399" s="7"/>
-      <c r="P399" s="9"/>
-      <c r="Q399" s="12"/>
-      <c r="R399" s="12"/>
-      <c r="S399" s="12"/>
-      <c r="T399" s="11"/>
+      <c r="M399" s="40">
+        <v>119.84</v>
+      </c>
+      <c r="N399" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="O399" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P399" s="40">
+        <v>119.84</v>
+      </c>
+      <c r="Q399" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="R399" s="12">
+        <v>1739</v>
+      </c>
+      <c r="S399" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="T399" s="11">
+        <v>457</v>
+      </c>
       <c r="U399" s="11"/>
       <c r="V399" s="16"/>
-      <c r="W399" s="4"/>
+      <c r="W399" s="4">
+        <v>25718</v>
+      </c>
     </row>
     <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
@@ -17010,10 +17106,18 @@
       <c r="N400" s="4"/>
       <c r="O400" s="7"/>
       <c r="P400" s="9"/>
-      <c r="Q400" s="12"/>
-      <c r="R400" s="12"/>
-      <c r="S400" s="12"/>
-      <c r="T400" s="11"/>
+      <c r="Q400" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="R400" s="12">
+        <v>1721</v>
+      </c>
+      <c r="S400" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="T400" s="11">
+        <v>1771</v>
+      </c>
       <c r="U400" s="11"/>
       <c r="V400" s="16"/>
       <c r="W400" s="4"/>
@@ -17086,14 +17190,14 @@
       <c r="O403" s="7"/>
       <c r="P403" s="11">
         <f>SUM(P398:P402)</f>
-        <v>2228.31</v>
+        <v>2348.15</v>
       </c>
       <c r="Q403" s="12"/>
       <c r="R403" s="12"/>
       <c r="S403" s="12"/>
       <c r="T403" s="11">
         <f>SUM(T398:T402)</f>
-        <v>0</v>
+        <v>2228</v>
       </c>
       <c r="U403" s="11">
         <f>SUM(U398:U402)</f>
@@ -17101,7 +17205,7 @@
       </c>
       <c r="V403" s="16">
         <f>T403-P403+U403</f>
-        <v>-2228.31</v>
+        <v>-120.15000000000009</v>
       </c>
       <c r="W403" s="4"/>
     </row>
@@ -17154,7 +17258,9 @@
       </c>
       <c r="U404" s="9"/>
       <c r="V404" s="16"/>
-      <c r="W404" s="4"/>
+      <c r="W404" s="4">
+        <v>26001</v>
+      </c>
     </row>
     <row r="405" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
@@ -17173,10 +17279,18 @@
       <c r="N405" s="4"/>
       <c r="O405" s="7"/>
       <c r="P405" s="9"/>
-      <c r="Q405" s="8"/>
-      <c r="R405" s="8"/>
-      <c r="S405" s="8"/>
-      <c r="T405" s="9"/>
+      <c r="Q405" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="R405" s="8">
+        <v>1739</v>
+      </c>
+      <c r="S405" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="T405" s="9">
+        <v>2067</v>
+      </c>
       <c r="U405" s="9"/>
       <c r="V405" s="16"/>
       <c r="W405" s="4"/>
@@ -17281,12 +17395,12 @@
       <c r="S409" s="12"/>
       <c r="T409" s="11">
         <f>SUM(T404:T408)</f>
-        <v>889</v>
+        <v>2956</v>
       </c>
       <c r="U409" s="11"/>
-      <c r="V409" s="16">
+      <c r="V409" s="50">
         <f>T409-P409+U409</f>
-        <v>-1996</v>
+        <v>71</v>
       </c>
       <c r="W409" s="4"/>
     </row>
@@ -17326,20 +17440,22 @@
         <v>1308.9100000000001</v>
       </c>
       <c r="Q410" s="8" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="R410" s="8">
-        <v>1694</v>
+        <v>1721</v>
       </c>
       <c r="S410" s="8" t="s">
         <v>67</v>
       </c>
       <c r="T410" s="9">
-        <v>1241</v>
+        <v>1321</v>
       </c>
       <c r="U410" s="9"/>
       <c r="V410" s="39"/>
-      <c r="W410" s="4"/>
+      <c r="W410" s="4">
+        <v>28457</v>
+      </c>
     </row>
     <row r="411" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
@@ -17364,7 +17480,9 @@
       <c r="T411" s="9"/>
       <c r="U411" s="9"/>
       <c r="V411" s="16"/>
-      <c r="W411" s="4"/>
+      <c r="W411" s="4">
+        <v>25718</v>
+      </c>
     </row>
     <row r="412" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
@@ -17441,7 +17559,7 @@
       <c r="S414" s="12"/>
       <c r="T414" s="11">
         <f>SUM(T410:T413)</f>
-        <v>1241</v>
+        <v>1321</v>
       </c>
       <c r="U414" s="11">
         <f>SUM(U410:U413)</f>
@@ -17449,7 +17567,7 @@
       </c>
       <c r="V414" s="16">
         <f>T414-P414+U414</f>
-        <v>-67.910000000000082</v>
+        <v>12.089999999999918</v>
       </c>
       <c r="W414" s="4"/>
     </row>
@@ -17502,7 +17620,9 @@
       </c>
       <c r="U415" s="11"/>
       <c r="V415" s="16"/>
-      <c r="W415" s="4"/>
+      <c r="W415" s="4">
+        <v>26251</v>
+      </c>
     </row>
     <row r="416" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
@@ -17539,13 +17659,23 @@
       <c r="P416" s="40">
         <v>27</v>
       </c>
-      <c r="Q416" s="8"/>
-      <c r="R416" s="8"/>
-      <c r="S416" s="8"/>
-      <c r="T416" s="9"/>
+      <c r="Q416" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="R416" s="8">
+        <v>1739</v>
+      </c>
+      <c r="S416" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T416" s="9">
+        <v>414</v>
+      </c>
       <c r="U416" s="11"/>
       <c r="V416" s="16"/>
-      <c r="W416" s="4"/>
+      <c r="W416" s="4">
+        <v>26244</v>
+      </c>
     </row>
     <row r="417" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
@@ -17582,13 +17712,23 @@
       <c r="P417" s="40">
         <v>378</v>
       </c>
-      <c r="Q417" s="8"/>
-      <c r="R417" s="8"/>
-      <c r="S417" s="8"/>
-      <c r="T417" s="9"/>
+      <c r="Q417" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="R417" s="8">
+        <v>1739</v>
+      </c>
+      <c r="S417" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T417" s="9">
+        <v>350</v>
+      </c>
       <c r="U417" s="11"/>
       <c r="V417" s="16"/>
-      <c r="W417" s="4"/>
+      <c r="W417" s="4">
+        <v>26262</v>
+      </c>
     </row>
     <row r="418" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
@@ -17625,10 +17765,18 @@
       <c r="P418" s="21">
         <v>1078.1400000000001</v>
       </c>
-      <c r="Q418" s="8"/>
-      <c r="R418" s="8"/>
-      <c r="S418" s="8"/>
-      <c r="T418" s="9"/>
+      <c r="Q418" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="R418" s="8">
+        <v>1722</v>
+      </c>
+      <c r="S418" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T418" s="9">
+        <v>713</v>
+      </c>
       <c r="U418" s="11"/>
       <c r="V418" s="16"/>
       <c r="W418" s="4"/>
@@ -17668,49 +17816,23 @@
       <c r="P419" s="40">
         <v>398.79</v>
       </c>
-      <c r="Q419" s="8"/>
-      <c r="R419" s="8"/>
-      <c r="S419" s="8"/>
-      <c r="T419" s="9"/>
+      <c r="Q419" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="R419" s="8">
+        <v>1721</v>
+      </c>
+      <c r="S419" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T419" s="9">
+        <v>345</v>
+      </c>
       <c r="U419" s="11"/>
       <c r="V419" s="16"/>
       <c r="W419" s="4"/>
     </row>
     <row r="420" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A420" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B420" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="C420" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D420" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E420" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F420" s="8"/>
-      <c r="G420" s="8"/>
-      <c r="H420" s="8"/>
-      <c r="I420" s="8"/>
-      <c r="J420" s="8"/>
-      <c r="K420" s="8"/>
-      <c r="L420" s="8"/>
-      <c r="M420" s="40">
-        <v>119.84</v>
-      </c>
-      <c r="N420" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="O420" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P420" s="40">
-        <v>119.84</v>
-      </c>
       <c r="Q420" s="8"/>
       <c r="R420" s="8"/>
       <c r="S420" s="8"/>
@@ -17830,14 +17952,14 @@
       <c r="O424" s="7"/>
       <c r="P424" s="11">
         <f>SUM(P415:P423)</f>
-        <v>3673.8100000000004</v>
+        <v>3553.9700000000003</v>
       </c>
       <c r="Q424" s="12"/>
       <c r="R424" s="12"/>
       <c r="S424" s="12"/>
       <c r="T424" s="11">
         <f>SUM(T415:T423)</f>
-        <v>315</v>
+        <v>2137</v>
       </c>
       <c r="U424" s="11">
         <f>SUM(U415:U423)</f>
@@ -17845,25 +17967,25 @@
       </c>
       <c r="V424" s="16">
         <f>T424-P424+U424</f>
-        <v>-3358.8100000000004</v>
+        <v>-1416.9700000000003</v>
       </c>
       <c r="W424" s="4"/>
     </row>
     <row r="425" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="B425" s="21" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D425" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E425" s="8" t="s">
-        <v>276</v>
+        <v>336</v>
+      </c>
+      <c r="D425" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E425" s="8">
+        <v>2804536</v>
       </c>
       <c r="F425" s="8"/>
       <c r="G425" s="8"/>
@@ -17873,7 +17995,7 @@
       <c r="K425" s="8"/>
       <c r="L425" s="8"/>
       <c r="M425" s="9">
-        <v>64.98</v>
+        <v>1258.74</v>
       </c>
       <c r="N425" s="4" t="s">
         <v>338</v>
@@ -17882,33 +18004,41 @@
         <v>339</v>
       </c>
       <c r="P425" s="9">
-        <v>64.98</v>
-      </c>
-      <c r="Q425" s="12"/>
-      <c r="R425" s="12"/>
-      <c r="S425" s="12"/>
-      <c r="T425" s="11">
-        <v>0</v>
+        <v>1258.74</v>
+      </c>
+      <c r="Q425" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="R425" s="12">
+        <v>1740</v>
+      </c>
+      <c r="S425" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T425" s="9">
+        <v>1520</v>
       </c>
       <c r="U425" s="11"/>
       <c r="V425" s="16"/>
-      <c r="W425" s="4"/>
+      <c r="W425" s="4">
+        <v>26712</v>
+      </c>
     </row>
     <row r="426" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="B426" s="21" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>333</v>
+        <v>88</v>
       </c>
       <c r="D426" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="E426" s="8" t="s">
-        <v>334</v>
+        <v>318</v>
+      </c>
+      <c r="E426" s="8">
+        <v>131128018</v>
       </c>
       <c r="F426" s="8"/>
       <c r="G426" s="8"/>
@@ -17918,7 +18048,7 @@
       <c r="K426" s="8"/>
       <c r="L426" s="8"/>
       <c r="M426" s="9">
-        <v>1250</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="N426" s="4" t="s">
         <v>338</v>
@@ -17927,22 +18057,42 @@
         <v>339</v>
       </c>
       <c r="P426" s="9">
-        <v>1250</v>
-      </c>
-      <c r="Q426" s="12"/>
-      <c r="R426" s="12"/>
-      <c r="S426" s="12"/>
-      <c r="T426" s="11"/>
+        <v>153.19999999999999</v>
+      </c>
+      <c r="Q426" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="R426" s="12">
+        <v>1739</v>
+      </c>
+      <c r="S426" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T426" s="9">
+        <v>652</v>
+      </c>
       <c r="U426" s="11"/>
       <c r="V426" s="16"/>
-      <c r="W426" s="4"/>
+      <c r="W426" s="4">
+        <v>26709</v>
+      </c>
     </row>
     <row r="427" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A427" s="4"/>
-      <c r="B427" s="21"/>
-      <c r="C427" s="8"/>
-      <c r="D427" s="14"/>
-      <c r="E427" s="8"/>
+      <c r="A427" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B427" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D427" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E427" s="8">
+        <v>131128018</v>
+      </c>
       <c r="F427" s="8"/>
       <c r="G427" s="8"/>
       <c r="H427" s="8"/>
@@ -17950,24 +18100,52 @@
       <c r="J427" s="8"/>
       <c r="K427" s="8"/>
       <c r="L427" s="8"/>
-      <c r="M427" s="9"/>
-      <c r="N427" s="4"/>
-      <c r="O427" s="7"/>
-      <c r="P427" s="9"/>
-      <c r="Q427" s="12"/>
-      <c r="R427" s="12"/>
-      <c r="S427" s="12"/>
-      <c r="T427" s="11"/>
+      <c r="M427" s="9">
+        <v>2455</v>
+      </c>
+      <c r="N427" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="O427" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P427" s="9">
+        <v>2455</v>
+      </c>
+      <c r="Q427" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="R427" s="12">
+        <v>1721</v>
+      </c>
+      <c r="S427" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T427" s="9">
+        <v>632</v>
+      </c>
       <c r="U427" s="11"/>
       <c r="V427" s="16"/>
-      <c r="W427" s="4"/>
+      <c r="W427" s="4">
+        <v>26721</v>
+      </c>
     </row>
     <row r="428" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A428" s="4"/>
-      <c r="B428" s="21"/>
-      <c r="C428" s="8"/>
-      <c r="D428" s="14"/>
-      <c r="E428" s="8"/>
+      <c r="A428" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B428" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C428" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D428" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E428" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="F428" s="8"/>
       <c r="G428" s="8"/>
       <c r="H428" s="8"/>
@@ -17975,24 +18153,44 @@
       <c r="J428" s="8"/>
       <c r="K428" s="8"/>
       <c r="L428" s="8"/>
-      <c r="M428" s="9"/>
-      <c r="N428" s="4"/>
-      <c r="O428" s="7"/>
-      <c r="P428" s="9"/>
+      <c r="M428" s="9">
+        <v>64.98</v>
+      </c>
+      <c r="N428" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="O428" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P428" s="9">
+        <v>64.98</v>
+      </c>
       <c r="Q428" s="12"/>
       <c r="R428" s="12"/>
       <c r="S428" s="12"/>
       <c r="T428" s="11"/>
       <c r="U428" s="11"/>
       <c r="V428" s="16"/>
-      <c r="W428" s="4"/>
+      <c r="W428" s="4">
+        <v>26722</v>
+      </c>
     </row>
     <row r="429" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A429" s="4"/>
-      <c r="B429" s="21"/>
-      <c r="C429" s="8"/>
-      <c r="D429" s="14"/>
-      <c r="E429" s="8"/>
+      <c r="A429" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B429" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D429" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E429" s="8" t="s">
+        <v>334</v>
+      </c>
       <c r="F429" s="8"/>
       <c r="G429" s="8"/>
       <c r="H429" s="8"/>
@@ -18000,46 +18198,32 @@
       <c r="J429" s="8"/>
       <c r="K429" s="8"/>
       <c r="L429" s="8"/>
-      <c r="M429" s="9"/>
-      <c r="N429" s="4"/>
-      <c r="O429" s="7"/>
-      <c r="P429" s="11">
-        <f>SUM(P425:P428)</f>
-        <v>1314.98</v>
+      <c r="M429" s="9">
+        <v>1250</v>
+      </c>
+      <c r="N429" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="O429" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P429" s="9">
+        <v>1250</v>
       </c>
       <c r="Q429" s="12"/>
       <c r="R429" s="12"/>
       <c r="S429" s="12"/>
-      <c r="T429" s="11">
-        <f>SUM(T425:T428)</f>
-        <v>0</v>
-      </c>
-      <c r="U429" s="11">
-        <f>SUM(U425:U428)</f>
-        <v>0</v>
-      </c>
-      <c r="V429" s="16">
-        <f>T429-P429+U429</f>
-        <v>-1314.98</v>
-      </c>
+      <c r="T429" s="11"/>
+      <c r="U429" s="11"/>
+      <c r="V429" s="16"/>
       <c r="W429" s="4"/>
     </row>
     <row r="430" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A430" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B430" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="C430" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D430" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="E430" s="8">
-        <v>2804536</v>
-      </c>
+      <c r="A430" s="4"/>
+      <c r="B430" s="21"/>
+      <c r="C430" s="8"/>
+      <c r="D430" s="14"/>
+      <c r="E430" s="8"/>
       <c r="F430" s="8"/>
       <c r="G430" s="8"/>
       <c r="H430" s="8"/>
@@ -18047,31 +18231,21 @@
       <c r="J430" s="8"/>
       <c r="K430" s="8"/>
       <c r="L430" s="8"/>
-      <c r="M430" s="9">
-        <v>1258.74</v>
-      </c>
-      <c r="N430" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="O430" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P430" s="9">
-        <v>1258.74</v>
-      </c>
+      <c r="M430" s="9"/>
+      <c r="N430" s="4"/>
+      <c r="O430" s="7"/>
+      <c r="P430" s="9"/>
       <c r="Q430" s="12"/>
       <c r="R430" s="12"/>
       <c r="S430" s="12"/>
-      <c r="T430" s="11">
-        <v>0</v>
-      </c>
+      <c r="T430" s="11"/>
       <c r="U430" s="11"/>
       <c r="V430" s="16"/>
       <c r="W430" s="4"/>
     </row>
     <row r="431" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
-      <c r="B431" s="21"/>
+      <c r="B431" s="18"/>
       <c r="C431" s="8"/>
       <c r="D431" s="14"/>
       <c r="E431" s="8"/>
@@ -18085,7 +18259,7 @@
       <c r="M431" s="9"/>
       <c r="N431" s="4"/>
       <c r="O431" s="7"/>
-      <c r="P431" s="9"/>
+      <c r="P431" s="11"/>
       <c r="Q431" s="12"/>
       <c r="R431" s="12"/>
       <c r="S431" s="12"/>
@@ -18096,7 +18270,7 @@
     </row>
     <row r="432" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
-      <c r="B432" s="21"/>
+      <c r="B432" s="18"/>
       <c r="C432" s="8"/>
       <c r="D432" s="14"/>
       <c r="E432" s="8"/>
@@ -18110,7 +18284,7 @@
       <c r="M432" s="9"/>
       <c r="N432" s="4"/>
       <c r="O432" s="7"/>
-      <c r="P432" s="9"/>
+      <c r="P432" s="11"/>
       <c r="Q432" s="12"/>
       <c r="R432" s="12"/>
       <c r="S432" s="12"/>
@@ -18119,9 +18293,9 @@
       <c r="V432" s="16"/>
       <c r="W432" s="4"/>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
-      <c r="B433" s="21"/>
+      <c r="B433" s="18"/>
       <c r="C433" s="8"/>
       <c r="D433" s="14"/>
       <c r="E433" s="8"/>
@@ -18135,7 +18309,7 @@
       <c r="M433" s="9"/>
       <c r="N433" s="4"/>
       <c r="O433" s="7"/>
-      <c r="P433" s="9"/>
+      <c r="P433" s="11"/>
       <c r="Q433" s="12"/>
       <c r="R433" s="12"/>
       <c r="S433" s="12"/>
@@ -18144,9 +18318,9 @@
       <c r="V433" s="16"/>
       <c r="W433" s="4"/>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
-      <c r="B434" s="21"/>
+      <c r="B434" s="18"/>
       <c r="C434" s="8"/>
       <c r="D434" s="14"/>
       <c r="E434" s="8"/>
@@ -18160,43 +18334,21 @@
       <c r="M434" s="9"/>
       <c r="N434" s="4"/>
       <c r="O434" s="7"/>
-      <c r="P434" s="11">
-        <f>SUM(P430:P433)</f>
-        <v>1258.74</v>
-      </c>
+      <c r="P434" s="11"/>
       <c r="Q434" s="12"/>
       <c r="R434" s="12"/>
       <c r="S434" s="12"/>
-      <c r="T434" s="11">
-        <f>SUM(T430:T433)</f>
-        <v>0</v>
-      </c>
-      <c r="U434" s="11">
-        <f>SUM(U430:U433)</f>
-        <v>0</v>
-      </c>
-      <c r="V434" s="16">
-        <f>T434-P434+U434</f>
-        <v>-1258.74</v>
-      </c>
+      <c r="T434" s="11"/>
+      <c r="U434" s="11"/>
+      <c r="V434" s="16"/>
       <c r="W434" s="4"/>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A435" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B435" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C435" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D435" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="E435" s="8">
-        <v>131128018</v>
-      </c>
+    <row r="435" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A435" s="4"/>
+      <c r="B435" s="18"/>
+      <c r="C435" s="8"/>
+      <c r="D435" s="14"/>
+      <c r="E435" s="8"/>
       <c r="F435" s="8"/>
       <c r="G435" s="8"/>
       <c r="H435" s="8"/>
@@ -18204,44 +18356,24 @@
       <c r="J435" s="8"/>
       <c r="K435" s="8"/>
       <c r="L435" s="8"/>
-      <c r="M435" s="9">
-        <v>153.19999999999999</v>
-      </c>
-      <c r="N435" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="O435" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P435" s="9">
-        <v>153.19999999999999</v>
-      </c>
+      <c r="M435" s="9"/>
+      <c r="N435" s="4"/>
+      <c r="O435" s="7"/>
+      <c r="P435" s="11"/>
       <c r="Q435" s="12"/>
       <c r="R435" s="12"/>
       <c r="S435" s="12"/>
-      <c r="T435" s="11">
-        <v>0</v>
-      </c>
+      <c r="T435" s="11"/>
       <c r="U435" s="11"/>
       <c r="V435" s="16"/>
       <c r="W435" s="4"/>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A436" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B436" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C436" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D436" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="E436" s="8">
-        <v>131128018</v>
-      </c>
+    <row r="436" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A436" s="4"/>
+      <c r="B436" s="18"/>
+      <c r="C436" s="8"/>
+      <c r="D436" s="14"/>
+      <c r="E436" s="8"/>
       <c r="F436" s="8"/>
       <c r="G436" s="8"/>
       <c r="H436" s="8"/>
@@ -18249,18 +18381,10 @@
       <c r="J436" s="8"/>
       <c r="K436" s="8"/>
       <c r="L436" s="8"/>
-      <c r="M436" s="9">
-        <v>2455</v>
-      </c>
-      <c r="N436" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="O436" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P436" s="9">
-        <v>2455</v>
-      </c>
+      <c r="M436" s="9"/>
+      <c r="N436" s="4"/>
+      <c r="O436" s="7"/>
+      <c r="P436" s="11"/>
       <c r="Q436" s="12"/>
       <c r="R436" s="12"/>
       <c r="S436" s="12"/>
@@ -18269,7 +18393,7 @@
       <c r="V436" s="16"/>
       <c r="W436" s="4"/>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="18"/>
       <c r="C437" s="8"/>
@@ -18294,7 +18418,7 @@
       <c r="V437" s="16"/>
       <c r="W437" s="4"/>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="18"/>
       <c r="C438" s="8"/>
@@ -18319,7 +18443,7 @@
       <c r="V438" s="16"/>
       <c r="W438" s="4"/>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="18"/>
       <c r="C439" s="8"/>
@@ -18335,28 +18459,16 @@
       <c r="M439" s="9"/>
       <c r="N439" s="4"/>
       <c r="O439" s="7"/>
-      <c r="P439" s="11">
-        <f>SUM(P435:P438)</f>
-        <v>2608.1999999999998</v>
-      </c>
+      <c r="P439" s="9"/>
       <c r="Q439" s="12"/>
       <c r="R439" s="12"/>
       <c r="S439" s="12"/>
-      <c r="T439" s="11">
-        <f>SUM(T435:T438)</f>
-        <v>0</v>
-      </c>
-      <c r="U439" s="11">
-        <f>SUM(U435:U438)</f>
-        <v>0</v>
-      </c>
-      <c r="V439" s="16">
-        <f>T439-P439+U439</f>
-        <v>-2608.1999999999998</v>
-      </c>
+      <c r="T439" s="11"/>
+      <c r="U439" s="11"/>
+      <c r="V439" s="16"/>
       <c r="W439" s="4"/>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="18"/>
       <c r="C440" s="8"/>
@@ -18372,7 +18484,7 @@
       <c r="M440" s="9"/>
       <c r="N440" s="4"/>
       <c r="O440" s="7"/>
-      <c r="P440" s="11"/>
+      <c r="P440" s="9"/>
       <c r="Q440" s="12"/>
       <c r="R440" s="12"/>
       <c r="S440" s="12"/>
@@ -18381,7 +18493,7 @@
       <c r="V440" s="16"/>
       <c r="W440" s="4"/>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="18"/>
       <c r="C441" s="8"/>
@@ -18397,7 +18509,7 @@
       <c r="M441" s="9"/>
       <c r="N441" s="4"/>
       <c r="O441" s="7"/>
-      <c r="P441" s="11"/>
+      <c r="P441" s="9"/>
       <c r="Q441" s="12"/>
       <c r="R441" s="12"/>
       <c r="S441" s="12"/>
@@ -18406,7 +18518,7 @@
       <c r="V441" s="16"/>
       <c r="W441" s="4"/>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="18"/>
       <c r="C442" s="8"/>
@@ -18422,7 +18534,7 @@
       <c r="M442" s="9"/>
       <c r="N442" s="4"/>
       <c r="O442" s="7"/>
-      <c r="P442" s="11"/>
+      <c r="P442" s="9"/>
       <c r="Q442" s="12"/>
       <c r="R442" s="12"/>
       <c r="S442" s="12"/>
@@ -18431,9 +18543,9 @@
       <c r="V442" s="16"/>
       <c r="W442" s="4"/>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
-      <c r="B443" s="18"/>
+      <c r="B443" s="8"/>
       <c r="C443" s="8"/>
       <c r="D443" s="14"/>
       <c r="E443" s="8"/>
@@ -18447,7 +18559,7 @@
       <c r="M443" s="9"/>
       <c r="N443" s="4"/>
       <c r="O443" s="7"/>
-      <c r="P443" s="11"/>
+      <c r="P443" s="9"/>
       <c r="Q443" s="12"/>
       <c r="R443" s="12"/>
       <c r="S443" s="12"/>
@@ -18456,9 +18568,9 @@
       <c r="V443" s="16"/>
       <c r="W443" s="4"/>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
-      <c r="B444" s="18"/>
+      <c r="B444" s="8"/>
       <c r="C444" s="8"/>
       <c r="D444" s="14"/>
       <c r="E444" s="8"/>
@@ -18472,7 +18584,7 @@
       <c r="M444" s="9"/>
       <c r="N444" s="4"/>
       <c r="O444" s="7"/>
-      <c r="P444" s="11"/>
+      <c r="P444" s="9"/>
       <c r="Q444" s="12"/>
       <c r="R444" s="12"/>
       <c r="S444" s="12"/>
@@ -18481,9 +18593,9 @@
       <c r="V444" s="16"/>
       <c r="W444" s="4"/>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
-      <c r="B445" s="18"/>
+      <c r="B445" s="8"/>
       <c r="C445" s="8"/>
       <c r="D445" s="14"/>
       <c r="E445" s="8"/>
@@ -18497,7 +18609,7 @@
       <c r="M445" s="9"/>
       <c r="N445" s="4"/>
       <c r="O445" s="7"/>
-      <c r="P445" s="11"/>
+      <c r="P445" s="9"/>
       <c r="Q445" s="12"/>
       <c r="R445" s="12"/>
       <c r="S445" s="12"/>
@@ -18506,9 +18618,9 @@
       <c r="V445" s="16"/>
       <c r="W445" s="4"/>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
-      <c r="B446" s="18"/>
+      <c r="B446" s="8"/>
       <c r="C446" s="8"/>
       <c r="D446" s="14"/>
       <c r="E446" s="8"/>
@@ -18519,355 +18631,80 @@
       <c r="J446" s="8"/>
       <c r="K446" s="8"/>
       <c r="L446" s="8"/>
-      <c r="M446" s="9"/>
+      <c r="M446" s="11">
+        <f>SUM(M7:M445)</f>
+        <v>117007.7</v>
+      </c>
       <c r="N446" s="4"/>
-      <c r="O446" s="7"/>
-      <c r="P446" s="11"/>
+      <c r="O446" s="8"/>
+      <c r="P446" s="11" t="e">
+        <f>+#REF!+#REF!+#REF!+P424+P414+P409+P403+P392+P397+P387+P380+P361+P367+P372+P351+P345+P333+P328+P319+P310+P297+P280+P275+P269+P256+P249+P235+P226+P211+P204+P190+P185+P168+P147+P107+P121+P94+P80+P66+P50+P41+P25+P19</f>
+        <v>#REF!</v>
+      </c>
       <c r="Q446" s="12"/>
       <c r="R446" s="12"/>
       <c r="S446" s="12"/>
-      <c r="T446" s="11"/>
-      <c r="U446" s="11"/>
-      <c r="V446" s="16"/>
+      <c r="T446" s="11" t="e">
+        <f>+#REF!+#REF!+#REF!+T424+T414+T409+T403+T392+T397+T387+T380+T361+T367+T372+T351+T345+T333+T328+T319+T310+T297+T280+T275+T269+T256+T249+T235+T226+T211+T204+T190+T185+T168+T147+T107+T121+T94+T80+T66+T50+T41+T25+T19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U446" s="11" t="e">
+        <f>+#REF!+#REF!+#REF!+U424+U414+U409+U403+U392+U397+U387+U380+U361+U367+U372+U351+U345+U333+U328+U319+U310+U297+U280+U275+U269+U256+U249+U235+U226+U211+U204+U190+U185+U168+U147+U107+U121+U94+U80+U66+U50+U41+U25+U19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V446" s="39">
+        <f>SUM(V7:V445)</f>
+        <v>-2321.38</v>
+      </c>
       <c r="W446" s="4"/>
-    </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A447" s="4"/>
-      <c r="B447" s="18"/>
-      <c r="C447" s="8"/>
-      <c r="D447" s="14"/>
-      <c r="E447" s="8"/>
-      <c r="F447" s="8"/>
-      <c r="G447" s="8"/>
-      <c r="H447" s="8"/>
-      <c r="I447" s="8"/>
-      <c r="J447" s="8"/>
-      <c r="K447" s="8"/>
-      <c r="L447" s="8"/>
-      <c r="M447" s="9"/>
-      <c r="N447" s="4"/>
-      <c r="O447" s="7"/>
-      <c r="P447" s="11"/>
-      <c r="Q447" s="12"/>
-      <c r="R447" s="12"/>
-      <c r="S447" s="12"/>
-      <c r="T447" s="11"/>
-      <c r="U447" s="11"/>
-      <c r="V447" s="16"/>
-      <c r="W447" s="4"/>
-    </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A448" s="4"/>
-      <c r="B448" s="18"/>
-      <c r="C448" s="8"/>
-      <c r="D448" s="14"/>
-      <c r="E448" s="8"/>
-      <c r="F448" s="8"/>
-      <c r="G448" s="8"/>
-      <c r="H448" s="8"/>
-      <c r="I448" s="8"/>
-      <c r="J448" s="8"/>
-      <c r="K448" s="8"/>
-      <c r="L448" s="8"/>
-      <c r="M448" s="9"/>
-      <c r="N448" s="4"/>
-      <c r="O448" s="7"/>
-      <c r="P448" s="11"/>
-      <c r="Q448" s="12"/>
-      <c r="R448" s="12"/>
-      <c r="S448" s="12"/>
-      <c r="T448" s="11"/>
-      <c r="U448" s="11"/>
-      <c r="V448" s="16"/>
-      <c r="W448" s="4"/>
-    </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A449" s="4"/>
-      <c r="B449" s="18"/>
-      <c r="C449" s="8"/>
-      <c r="D449" s="14"/>
-      <c r="E449" s="8"/>
-      <c r="F449" s="8"/>
-      <c r="G449" s="8"/>
-      <c r="H449" s="8"/>
-      <c r="I449" s="8"/>
-      <c r="J449" s="8"/>
-      <c r="K449" s="8"/>
-      <c r="L449" s="8"/>
-      <c r="M449" s="9"/>
-      <c r="N449" s="4"/>
-      <c r="O449" s="7"/>
-      <c r="P449" s="11"/>
-      <c r="Q449" s="12"/>
-      <c r="R449" s="12"/>
-      <c r="S449" s="12"/>
-      <c r="T449" s="11"/>
-      <c r="U449" s="11"/>
-      <c r="V449" s="16"/>
-      <c r="W449" s="4"/>
-    </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A450" s="4"/>
-      <c r="B450" s="18"/>
-      <c r="C450" s="8"/>
-      <c r="D450" s="14"/>
-      <c r="E450" s="8"/>
-      <c r="F450" s="8"/>
-      <c r="G450" s="8"/>
-      <c r="H450" s="8"/>
-      <c r="I450" s="8"/>
-      <c r="J450" s="8"/>
-      <c r="K450" s="8"/>
-      <c r="L450" s="8"/>
-      <c r="M450" s="9"/>
-      <c r="N450" s="4"/>
-      <c r="O450" s="7"/>
-      <c r="P450" s="9"/>
-      <c r="Q450" s="12"/>
-      <c r="R450" s="12"/>
-      <c r="S450" s="12"/>
-      <c r="T450" s="11"/>
-      <c r="U450" s="11"/>
-      <c r="V450" s="16"/>
-      <c r="W450" s="4"/>
-    </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A451" s="4"/>
-      <c r="B451" s="18"/>
-      <c r="C451" s="8"/>
-      <c r="D451" s="14"/>
-      <c r="E451" s="8"/>
-      <c r="F451" s="8"/>
-      <c r="G451" s="8"/>
-      <c r="H451" s="8"/>
-      <c r="I451" s="8"/>
-      <c r="J451" s="8"/>
-      <c r="K451" s="8"/>
-      <c r="L451" s="8"/>
-      <c r="M451" s="9"/>
-      <c r="N451" s="4"/>
-      <c r="O451" s="7"/>
-      <c r="P451" s="9"/>
-      <c r="Q451" s="12"/>
-      <c r="R451" s="12"/>
-      <c r="S451" s="12"/>
-      <c r="T451" s="11"/>
-      <c r="U451" s="11"/>
-      <c r="V451" s="16"/>
-      <c r="W451" s="4"/>
-    </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A452" s="4"/>
-      <c r="B452" s="18"/>
-      <c r="C452" s="8"/>
-      <c r="D452" s="14"/>
-      <c r="E452" s="8"/>
-      <c r="F452" s="8"/>
-      <c r="G452" s="8"/>
-      <c r="H452" s="8"/>
-      <c r="I452" s="8"/>
-      <c r="J452" s="8"/>
-      <c r="K452" s="8"/>
-      <c r="L452" s="8"/>
-      <c r="M452" s="9"/>
-      <c r="N452" s="4"/>
-      <c r="O452" s="7"/>
-      <c r="P452" s="9"/>
-      <c r="Q452" s="12"/>
-      <c r="R452" s="12"/>
-      <c r="S452" s="12"/>
-      <c r="T452" s="11"/>
-      <c r="U452" s="11"/>
-      <c r="V452" s="16"/>
-      <c r="W452" s="4"/>
-    </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A453" s="4"/>
-      <c r="B453" s="18"/>
-      <c r="C453" s="8"/>
-      <c r="D453" s="14"/>
-      <c r="E453" s="8"/>
-      <c r="F453" s="8"/>
-      <c r="G453" s="8"/>
-      <c r="H453" s="8"/>
-      <c r="I453" s="8"/>
-      <c r="J453" s="8"/>
-      <c r="K453" s="8"/>
-      <c r="L453" s="8"/>
-      <c r="M453" s="9"/>
-      <c r="N453" s="4"/>
-      <c r="O453" s="7"/>
-      <c r="P453" s="9"/>
-      <c r="Q453" s="12"/>
-      <c r="R453" s="12"/>
-      <c r="S453" s="12"/>
-      <c r="T453" s="11"/>
-      <c r="U453" s="11"/>
-      <c r="V453" s="16"/>
-      <c r="W453" s="4"/>
-    </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A454" s="4"/>
-      <c r="B454" s="8"/>
-      <c r="C454" s="8"/>
-      <c r="D454" s="14"/>
-      <c r="E454" s="8"/>
-      <c r="F454" s="8"/>
-      <c r="G454" s="8"/>
-      <c r="H454" s="8"/>
-      <c r="I454" s="8"/>
-      <c r="J454" s="8"/>
-      <c r="K454" s="8"/>
-      <c r="L454" s="8"/>
-      <c r="M454" s="9"/>
-      <c r="N454" s="4"/>
-      <c r="O454" s="7"/>
-      <c r="P454" s="9"/>
-      <c r="Q454" s="12"/>
-      <c r="R454" s="12"/>
-      <c r="S454" s="12"/>
-      <c r="T454" s="11"/>
-      <c r="U454" s="11"/>
-      <c r="V454" s="16"/>
-      <c r="W454" s="4"/>
-    </row>
-    <row r="455" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A455" s="4"/>
-      <c r="B455" s="8"/>
-      <c r="C455" s="8"/>
-      <c r="D455" s="14"/>
-      <c r="E455" s="8"/>
-      <c r="F455" s="8"/>
-      <c r="G455" s="8"/>
-      <c r="H455" s="8"/>
-      <c r="I455" s="8"/>
-      <c r="J455" s="8"/>
-      <c r="K455" s="8"/>
-      <c r="L455" s="8"/>
-      <c r="M455" s="9"/>
-      <c r="N455" s="4"/>
-      <c r="O455" s="7"/>
-      <c r="P455" s="9"/>
-      <c r="Q455" s="12"/>
-      <c r="R455" s="12"/>
-      <c r="S455" s="12"/>
-      <c r="T455" s="11"/>
-      <c r="U455" s="11"/>
-      <c r="V455" s="16"/>
-      <c r="W455" s="4"/>
-    </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A456" s="4"/>
-      <c r="B456" s="8"/>
-      <c r="C456" s="8"/>
-      <c r="D456" s="14"/>
-      <c r="E456" s="8"/>
-      <c r="F456" s="8"/>
-      <c r="G456" s="8"/>
-      <c r="H456" s="8"/>
-      <c r="I456" s="8"/>
-      <c r="J456" s="8"/>
-      <c r="K456" s="8"/>
-      <c r="L456" s="8"/>
-      <c r="M456" s="9"/>
-      <c r="N456" s="4"/>
-      <c r="O456" s="7"/>
-      <c r="P456" s="9"/>
-      <c r="Q456" s="12"/>
-      <c r="R456" s="12"/>
-      <c r="S456" s="12"/>
-      <c r="T456" s="11"/>
-      <c r="U456" s="11"/>
-      <c r="V456" s="16"/>
-      <c r="W456" s="4"/>
-    </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A457" s="4"/>
-      <c r="B457" s="8"/>
-      <c r="C457" s="8"/>
-      <c r="D457" s="14"/>
-      <c r="E457" s="8"/>
-      <c r="F457" s="8"/>
-      <c r="G457" s="8"/>
-      <c r="H457" s="8"/>
-      <c r="I457" s="8"/>
-      <c r="J457" s="8"/>
-      <c r="K457" s="8"/>
-      <c r="L457" s="8"/>
-      <c r="M457" s="11">
-        <f>SUM(M7:M456)</f>
-        <v>117007.7</v>
-      </c>
-      <c r="N457" s="4"/>
-      <c r="O457" s="8"/>
-      <c r="P457" s="11">
-        <f>+P439+P434+P429+P424+P414+P409+P403+P392+P397+P387+P380+P361+P367+P372+P351+P345+P333+P328+P319+P310+P297+P280+P275+P269+P256+P249+P235+P226+P211+P204+P190+P185+P168+P147+P107+P121+P94+P80+P66+P50+P41+P25+P19</f>
-        <v>117007.7</v>
-      </c>
-      <c r="Q457" s="12"/>
-      <c r="R457" s="12"/>
-      <c r="S457" s="12"/>
-      <c r="T457" s="11">
-        <f>+T439+T434+T429+T424+T414+T409+T403+T392+T397+T387+T380+T361+T367+T372+T351+T345+T333+T328+T319+T310+T297+T280+T275+T269+T256+T249+T235+T226+T211+T204+T190+T185+T168+T147+T107+T121+T94+T80+T66+T50+T41+T25+T19</f>
-        <v>100354.40000000001</v>
-      </c>
-      <c r="U457" s="11">
-        <f>+U439+U434+U429+U424+U414+U409+U403+U392+U397+U387+U380+U361+U367+U372+U351+U345+U333+U328+U319+U310+U297+U280+U275+U269+U256+U249+U235+U226+U211+U204+U190+U185+U168+U147+U107+U121+U94+U80+U66+U50+U41+U25+U19</f>
-        <v>52</v>
-      </c>
-      <c r="V457" s="39">
-        <f>SUM(V7:V456)</f>
-        <v>-16170.3</v>
-      </c>
-      <c r="W457" s="4"/>
-      <c r="X457" s="1">
+      <c r="X446" s="1">
         <v>2698</v>
       </c>
     </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T458" s="17">
-        <f>P457-T457</f>
-        <v>16653.299999999988</v>
-      </c>
-      <c r="U458" s="17"/>
-      <c r="X458" s="1">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T447" s="17" t="e">
+        <f>P446-T446</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U447" s="17"/>
+      <c r="X447" s="1">
         <v>2709</v>
       </c>
     </row>
-    <row r="459" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V459" s="17"/>
-    </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V460" s="1">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V448" s="17"/>
+    </row>
+    <row r="449" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V449" s="1">
         <v>3870</v>
       </c>
     </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V461" s="1">
+    <row r="450" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V450" s="1">
         <v>2653</v>
       </c>
     </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V462" s="1">
+    <row r="451" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V451" s="1">
         <v>860</v>
       </c>
     </row>
-    <row r="463" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V463" s="17">
+    <row r="452" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V452" s="17">
         <v>513</v>
       </c>
     </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V464" s="17"/>
-    </row>
-    <row r="465" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V465" s="17">
-        <f>SUM(V461:V464)</f>
+    <row r="453" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V453" s="17"/>
+    </row>
+    <row r="454" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V454" s="17">
+        <f>SUM(V450:V453)</f>
         <v>4026</v>
       </c>
     </row>
-    <row r="466" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V466" s="17"/>
+    <row r="455" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V455" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Old Order Summary Acc/Tosrifa Ind. Ltd/Tosrifa Ind.xlsx
+++ b/Old Order Summary Acc/Tosrifa Ind. Ltd/Tosrifa Ind.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="375" windowWidth="20115" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Tosrifa" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="344">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -1047,6 +1047,9 @@
   </si>
   <si>
     <t>16.09.21</t>
+  </si>
+  <si>
+    <t>24.09.21</t>
   </si>
 </sst>
 </file>
@@ -1267,15 +1270,6 @@
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1296,6 +1290,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1602,8 +1605,8 @@
   <dimension ref="A1:X455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T432" sqref="T432"/>
+      <pane ySplit="6" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C409" sqref="C409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,111 +1632,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43" t="s">
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
       <c r="U5" s="2"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3" t="s">
@@ -16584,203 +16587,203 @@
       <c r="W387" s="4"/>
     </row>
     <row r="388" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A388" s="44" t="s">
+      <c r="A388" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B388" s="45" t="s">
+      <c r="B388" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C388" s="46" t="s">
+      <c r="C388" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="D388" s="47" t="s">
+      <c r="D388" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="E388" s="46" t="s">
+      <c r="E388" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="F388" s="46"/>
-      <c r="G388" s="46"/>
-      <c r="H388" s="46"/>
-      <c r="I388" s="46"/>
-      <c r="J388" s="46"/>
-      <c r="K388" s="46"/>
-      <c r="L388" s="46"/>
-      <c r="M388" s="48">
+      <c r="F388" s="43"/>
+      <c r="G388" s="43"/>
+      <c r="H388" s="43"/>
+      <c r="I388" s="43"/>
+      <c r="J388" s="43"/>
+      <c r="K388" s="43"/>
+      <c r="L388" s="43"/>
+      <c r="M388" s="45">
         <v>19.8</v>
       </c>
-      <c r="N388" s="44" t="s">
+      <c r="N388" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="O388" s="44" t="s">
+      <c r="O388" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="P388" s="48">
+      <c r="P388" s="45">
         <v>19.8</v>
       </c>
-      <c r="Q388" s="46" t="s">
+      <c r="Q388" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="R388" s="46">
+      <c r="R388" s="43">
         <v>1653</v>
       </c>
-      <c r="S388" s="46" t="s">
+      <c r="S388" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="T388" s="48">
+      <c r="T388" s="45">
         <v>270</v>
       </c>
-      <c r="U388" s="49"/>
-      <c r="V388" s="50"/>
-      <c r="W388" s="44"/>
+      <c r="U388" s="46"/>
+      <c r="V388" s="47"/>
+      <c r="W388" s="41"/>
     </row>
     <row r="389" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A389" s="44" t="s">
+      <c r="A389" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B389" s="45" t="s">
+      <c r="B389" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C389" s="46" t="s">
+      <c r="C389" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D389" s="47" t="s">
+      <c r="D389" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="E389" s="46" t="s">
+      <c r="E389" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="F389" s="46"/>
-      <c r="G389" s="46"/>
-      <c r="H389" s="46"/>
-      <c r="I389" s="46"/>
-      <c r="J389" s="46"/>
-      <c r="K389" s="46"/>
-      <c r="L389" s="46"/>
-      <c r="M389" s="48">
+      <c r="F389" s="43"/>
+      <c r="G389" s="43"/>
+      <c r="H389" s="43"/>
+      <c r="I389" s="43"/>
+      <c r="J389" s="43"/>
+      <c r="K389" s="43"/>
+      <c r="L389" s="43"/>
+      <c r="M389" s="45">
         <v>1929.7</v>
       </c>
-      <c r="N389" s="44" t="s">
+      <c r="N389" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="O389" s="44" t="s">
+      <c r="O389" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="P389" s="48">
+      <c r="P389" s="45">
         <v>1929.7</v>
       </c>
-      <c r="Q389" s="46" t="s">
+      <c r="Q389" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="R389" s="46">
+      <c r="R389" s="43">
         <v>1665</v>
       </c>
-      <c r="S389" s="46" t="s">
+      <c r="S389" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="T389" s="48">
+      <c r="T389" s="45">
         <v>1427</v>
       </c>
-      <c r="U389" s="49"/>
-      <c r="V389" s="50"/>
-      <c r="W389" s="44"/>
+      <c r="U389" s="46"/>
+      <c r="V389" s="47"/>
+      <c r="W389" s="41"/>
     </row>
     <row r="390" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A390" s="44"/>
-      <c r="B390" s="45"/>
-      <c r="C390" s="46"/>
-      <c r="D390" s="47"/>
-      <c r="E390" s="46"/>
-      <c r="F390" s="46"/>
-      <c r="G390" s="46"/>
-      <c r="H390" s="46"/>
-      <c r="I390" s="46"/>
-      <c r="J390" s="46"/>
-      <c r="K390" s="46"/>
-      <c r="L390" s="46"/>
-      <c r="M390" s="48"/>
-      <c r="N390" s="44"/>
-      <c r="O390" s="51"/>
-      <c r="P390" s="49"/>
-      <c r="Q390" s="46" t="s">
+      <c r="A390" s="41"/>
+      <c r="B390" s="42"/>
+      <c r="C390" s="43"/>
+      <c r="D390" s="44"/>
+      <c r="E390" s="43"/>
+      <c r="F390" s="43"/>
+      <c r="G390" s="43"/>
+      <c r="H390" s="43"/>
+      <c r="I390" s="43"/>
+      <c r="J390" s="43"/>
+      <c r="K390" s="43"/>
+      <c r="L390" s="43"/>
+      <c r="M390" s="45"/>
+      <c r="N390" s="41"/>
+      <c r="O390" s="48"/>
+      <c r="P390" s="46"/>
+      <c r="Q390" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="R390" s="46">
+      <c r="R390" s="43">
         <v>1681</v>
       </c>
-      <c r="S390" s="46" t="s">
+      <c r="S390" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="T390" s="48">
+      <c r="T390" s="45">
         <v>242</v>
       </c>
-      <c r="U390" s="49">
+      <c r="U390" s="46">
         <v>9</v>
       </c>
-      <c r="V390" s="50"/>
-      <c r="W390" s="44"/>
+      <c r="V390" s="47"/>
+      <c r="W390" s="41"/>
     </row>
     <row r="391" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A391" s="44"/>
-      <c r="B391" s="45"/>
-      <c r="C391" s="46"/>
-      <c r="D391" s="47"/>
-      <c r="E391" s="46"/>
-      <c r="F391" s="46"/>
-      <c r="G391" s="46"/>
-      <c r="H391" s="46"/>
-      <c r="I391" s="46"/>
-      <c r="J391" s="46"/>
-      <c r="K391" s="46"/>
-      <c r="L391" s="46"/>
-      <c r="M391" s="48"/>
-      <c r="N391" s="44"/>
-      <c r="O391" s="51"/>
-      <c r="P391" s="49"/>
-      <c r="Q391" s="46"/>
-      <c r="R391" s="46"/>
-      <c r="S391" s="46"/>
-      <c r="T391" s="48"/>
-      <c r="U391" s="49"/>
-      <c r="V391" s="50"/>
-      <c r="W391" s="44"/>
+      <c r="A391" s="41"/>
+      <c r="B391" s="42"/>
+      <c r="C391" s="43"/>
+      <c r="D391" s="44"/>
+      <c r="E391" s="43"/>
+      <c r="F391" s="43"/>
+      <c r="G391" s="43"/>
+      <c r="H391" s="43"/>
+      <c r="I391" s="43"/>
+      <c r="J391" s="43"/>
+      <c r="K391" s="43"/>
+      <c r="L391" s="43"/>
+      <c r="M391" s="45"/>
+      <c r="N391" s="41"/>
+      <c r="O391" s="48"/>
+      <c r="P391" s="46"/>
+      <c r="Q391" s="43"/>
+      <c r="R391" s="43"/>
+      <c r="S391" s="43"/>
+      <c r="T391" s="45"/>
+      <c r="U391" s="46"/>
+      <c r="V391" s="47"/>
+      <c r="W391" s="41"/>
     </row>
     <row r="392" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A392" s="44"/>
-      <c r="B392" s="45"/>
-      <c r="C392" s="46"/>
-      <c r="D392" s="47"/>
-      <c r="E392" s="46"/>
-      <c r="F392" s="46"/>
-      <c r="G392" s="46"/>
-      <c r="H392" s="46"/>
-      <c r="I392" s="46"/>
-      <c r="J392" s="46"/>
-      <c r="K392" s="46"/>
-      <c r="L392" s="46"/>
-      <c r="M392" s="48"/>
-      <c r="N392" s="44"/>
-      <c r="O392" s="51"/>
-      <c r="P392" s="49">
+      <c r="A392" s="41"/>
+      <c r="B392" s="42"/>
+      <c r="C392" s="43"/>
+      <c r="D392" s="44"/>
+      <c r="E392" s="43"/>
+      <c r="F392" s="43"/>
+      <c r="G392" s="43"/>
+      <c r="H392" s="43"/>
+      <c r="I392" s="43"/>
+      <c r="J392" s="43"/>
+      <c r="K392" s="43"/>
+      <c r="L392" s="43"/>
+      <c r="M392" s="45"/>
+      <c r="N392" s="41"/>
+      <c r="O392" s="48"/>
+      <c r="P392" s="46">
         <f>SUM(P388:P391)</f>
         <v>1949.5</v>
       </c>
-      <c r="Q392" s="52"/>
-      <c r="R392" s="52"/>
-      <c r="S392" s="52"/>
-      <c r="T392" s="49">
+      <c r="Q392" s="49"/>
+      <c r="R392" s="49"/>
+      <c r="S392" s="49"/>
+      <c r="T392" s="46">
         <f>SUM(T388:T391)</f>
         <v>1939</v>
       </c>
-      <c r="U392" s="49">
+      <c r="U392" s="46">
         <f>SUM(U388:U391)</f>
         <v>9</v>
       </c>
-      <c r="V392" s="50">
+      <c r="V392" s="47">
         <f>T392-P392+U392</f>
         <v>-1.5</v>
       </c>
-      <c r="W392" s="44"/>
+      <c r="W392" s="41"/>
     </row>
     <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
@@ -17398,7 +17401,7 @@
         <v>2956</v>
       </c>
       <c r="U409" s="11"/>
-      <c r="V409" s="50">
+      <c r="V409" s="47">
         <f>T409-P409+U409</f>
         <v>71</v>
       </c>
@@ -17833,10 +17836,18 @@
       <c r="W419" s="4"/>
     </row>
     <row r="420" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="Q420" s="8"/>
-      <c r="R420" s="8"/>
-      <c r="S420" s="8"/>
-      <c r="T420" s="9"/>
+      <c r="Q420" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="R420" s="8">
+        <v>1759</v>
+      </c>
+      <c r="S420" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T420" s="9">
+        <v>1306</v>
+      </c>
       <c r="U420" s="11"/>
       <c r="V420" s="16"/>
       <c r="W420" s="4"/>
@@ -17959,7 +17970,7 @@
       <c r="S424" s="12"/>
       <c r="T424" s="11">
         <f>SUM(T415:T423)</f>
-        <v>2137</v>
+        <v>3443</v>
       </c>
       <c r="U424" s="11">
         <f>SUM(U415:U423)</f>
@@ -17967,7 +17978,7 @@
       </c>
       <c r="V424" s="16">
         <f>T424-P424+U424</f>
-        <v>-1416.9700000000003</v>
+        <v>-110.97000000000025</v>
       </c>
       <c r="W424" s="4"/>
     </row>
@@ -18165,10 +18176,18 @@
       <c r="P428" s="9">
         <v>64.98</v>
       </c>
-      <c r="Q428" s="12"/>
-      <c r="R428" s="12"/>
-      <c r="S428" s="12"/>
-      <c r="T428" s="11"/>
+      <c r="Q428" s="12">
+        <v>2409.21</v>
+      </c>
+      <c r="R428" s="12">
+        <v>1759</v>
+      </c>
+      <c r="S428" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T428" s="11">
+        <v>1180</v>
+      </c>
       <c r="U428" s="11"/>
       <c r="V428" s="16"/>
       <c r="W428" s="4">
@@ -18384,13 +18403,25 @@
       <c r="M436" s="9"/>
       <c r="N436" s="4"/>
       <c r="O436" s="7"/>
-      <c r="P436" s="11"/>
+      <c r="P436" s="11">
+        <f>SUM(P425:P435)</f>
+        <v>5181.92</v>
+      </c>
       <c r="Q436" s="12"/>
       <c r="R436" s="12"/>
       <c r="S436" s="12"/>
-      <c r="T436" s="11"/>
-      <c r="U436" s="11"/>
-      <c r="V436" s="16"/>
+      <c r="T436" s="11">
+        <f>SUM(T425:T435)</f>
+        <v>3984</v>
+      </c>
+      <c r="U436" s="11">
+        <f>SUM(U425:U435)</f>
+        <v>0</v>
+      </c>
+      <c r="V436" s="16">
+        <f>P436-T436-U436</f>
+        <v>1197.92</v>
+      </c>
       <c r="W436" s="4"/>
     </row>
     <row r="437" spans="1:24" x14ac:dyDescent="0.25">
@@ -18654,7 +18685,7 @@
       </c>
       <c r="V446" s="39">
         <f>SUM(V7:V445)</f>
-        <v>-2321.38</v>
+        <v>182.53999999999985</v>
       </c>
       <c r="W446" s="4"/>
       <c r="X446" s="1">
